--- a/biology/Zoologie/Ammoxenus_pentheri/Ammoxenus_pentheri.xlsx
+++ b/biology/Zoologie/Ammoxenus_pentheri/Ammoxenus_pentheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ammoxenus pentheri est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ammoxenus pentheri est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Botswana et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Botswana et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 7 mm[2].
-Les femelles mesurent de 6,4 à 7,2 mm[3].
-Ammoxenus pentheri est une araignée termitivore[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 7 mm.
+Les femelles mesurent de 6,4 à 7,2 mm.
+Ammoxenus pentheri est une araignée termitivore.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1897.
 </t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arnold Penther[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arnold Penther.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1897 : « Arachnides recueillis par M. Arnold Penther dans l'Afrique australe. » Bulletin de la Société Zoologique de France, vol. 21, p. 220-223 (texte intégral).</t>
         </is>
